--- a/Data_frame/balancos_definitivos/MEDI3.xlsx
+++ b/Data_frame/balancos_definitivos/MEDI3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG80"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,86 +519,6 @@
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2020</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2020</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2020</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -654,54 +574,6 @@
       <c r="Q2" t="n">
         <v>977974.0159999999</v>
       </c>
-      <c r="R2" t="n">
-        <v>213683.008</v>
-      </c>
-      <c r="S2" t="n">
-        <v>197816</v>
-      </c>
-      <c r="T2" t="n">
-        <v>270035.008</v>
-      </c>
-      <c r="U2" t="n">
-        <v>261268.992</v>
-      </c>
-      <c r="V2" t="n">
-        <v>310182.016</v>
-      </c>
-      <c r="W2" t="n">
-        <v>932945.024</v>
-      </c>
-      <c r="X2" t="n">
-        <v>915187.968</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1003580.992</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>999038.976</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>930060.992</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>899806.976</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>887532.032</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>906979.968</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>853542.0159999999</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>813412.992</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>780024</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -757,54 +629,6 @@
       <c r="Q3" t="n">
         <v>308123.008</v>
       </c>
-      <c r="R3" t="n">
-        <v>116655</v>
-      </c>
-      <c r="S3" t="n">
-        <v>131638</v>
-      </c>
-      <c r="T3" t="n">
-        <v>200802</v>
-      </c>
-      <c r="U3" t="n">
-        <v>176606</v>
-      </c>
-      <c r="V3" t="n">
-        <v>208191.008</v>
-      </c>
-      <c r="W3" t="n">
-        <v>812243.968</v>
-      </c>
-      <c r="X3" t="n">
-        <v>752710.976</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>707348.992</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>667692.992</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>582694.976</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>529935.008</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>518702.016</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>544896</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>495244</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>452703.008</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>430412.992</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -860,54 +684,6 @@
       <c r="Q4" t="n">
         <v>229187.008</v>
       </c>
-      <c r="R4" t="n">
-        <v>5823</v>
-      </c>
-      <c r="S4" t="n">
-        <v>11737</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4463</v>
-      </c>
-      <c r="U4" t="n">
-        <v>27421</v>
-      </c>
-      <c r="V4" t="n">
-        <v>23524</v>
-      </c>
-      <c r="W4" t="n">
-        <v>568704</v>
-      </c>
-      <c r="X4" t="n">
-        <v>433142.016</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>339828.992</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>271532</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>205532.992</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>203692</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>219588.992</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>236323.008</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>202760.992</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>166868.992</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>137807.008</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -963,54 +739,6 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1066,54 +794,6 @@
       <c r="Q6" t="n">
         <v>39535</v>
       </c>
-      <c r="R6" t="n">
-        <v>23835</v>
-      </c>
-      <c r="S6" t="n">
-        <v>23741</v>
-      </c>
-      <c r="T6" t="n">
-        <v>92346</v>
-      </c>
-      <c r="U6" t="n">
-        <v>33483</v>
-      </c>
-      <c r="V6" t="n">
-        <v>29731</v>
-      </c>
-      <c r="W6" t="n">
-        <v>87405</v>
-      </c>
-      <c r="X6" t="n">
-        <v>137976.992</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>163084.992</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>155436.992</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>148239.008</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>118304</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>102683</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>107302</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>101080</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>101186</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>96436</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1169,54 +849,6 @@
       <c r="Q7" t="n">
         <v>7403</v>
       </c>
-      <c r="R7" t="n">
-        <v>49608</v>
-      </c>
-      <c r="S7" t="n">
-        <v>39057</v>
-      </c>
-      <c r="T7" t="n">
-        <v>43920</v>
-      </c>
-      <c r="U7" t="n">
-        <v>53342</v>
-      </c>
-      <c r="V7" t="n">
-        <v>79749</v>
-      </c>
-      <c r="W7" t="n">
-        <v>81253</v>
-      </c>
-      <c r="X7" t="n">
-        <v>94601</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>100409</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>132231</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>115287</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>103256</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>88318</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>87484</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>73051</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>62431</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>62633</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1272,54 +904,6 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1375,54 +959,6 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="n">
-        <v>27817</v>
-      </c>
-      <c r="S9" t="n">
-        <v>46651</v>
-      </c>
-      <c r="T9" t="n">
-        <v>48963</v>
-      </c>
-      <c r="U9" t="n">
-        <v>51530</v>
-      </c>
-      <c r="V9" t="n">
-        <v>60073</v>
-      </c>
-      <c r="W9" t="n">
-        <v>60455</v>
-      </c>
-      <c r="X9" t="n">
-        <v>70201</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>89563</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>92308</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>92936</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>85200</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>86070</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>90540</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>87210</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>90926</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>95257</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1478,54 +1014,6 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1581,54 +1069,6 @@
       <c r="Q11" t="n">
         <v>31998</v>
       </c>
-      <c r="R11" t="n">
-        <v>9572</v>
-      </c>
-      <c r="S11" t="n">
-        <v>10452</v>
-      </c>
-      <c r="T11" t="n">
-        <v>11110</v>
-      </c>
-      <c r="U11" t="n">
-        <v>10830</v>
-      </c>
-      <c r="V11" t="n">
-        <v>15114</v>
-      </c>
-      <c r="W11" t="n">
-        <v>14427</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16790</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>14463</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>16185</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>20700</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19483</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>22042</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>23247</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>31142</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>31291</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>38280</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1684,54 +1124,6 @@
       <c r="Q12" t="n">
         <v>109944</v>
       </c>
-      <c r="R12" t="n">
-        <v>23473</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2776</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2740</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2852</v>
-      </c>
-      <c r="V12" t="n">
-        <v>13118</v>
-      </c>
-      <c r="W12" t="n">
-        <v>24482</v>
-      </c>
-      <c r="X12" t="n">
-        <v>32057</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>38152</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>55399</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>63147</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>77727</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>88749</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>95882</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>107067</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>110868</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>111833</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1787,54 +1179,6 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1890,54 +1234,6 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1993,54 +1289,6 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2096,54 +1344,6 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="n">
-        <v>1883</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1883</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1847</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1959</v>
-      </c>
-      <c r="V16" t="n">
-        <v>12079</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>3019</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>3220</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>3021</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3006</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>3727</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>3730</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>3727</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>3728</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>3727</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>3711</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2199,54 +1399,6 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2302,54 +1454,6 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2405,54 +1509,6 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="n">
-        <v>21590</v>
-      </c>
-      <c r="S19" t="n">
-        <v>893</v>
-      </c>
-      <c r="T19" t="n">
-        <v>893</v>
-      </c>
-      <c r="U19" t="n">
-        <v>893</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1039</v>
-      </c>
-      <c r="W19" t="n">
-        <v>5674</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1344</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2077</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>9082</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13685</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>20883</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>22738</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>21810</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>28532</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>32103</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>31425</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2508,54 +1564,6 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2611,54 +1619,6 @@
       <c r="Q21" t="n">
         <v>109944</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2714,54 +1674,6 @@
       <c r="Q22" t="n">
         <v>1963</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2817,54 +1729,6 @@
       <c r="Q23" t="n">
         <v>313719.008</v>
       </c>
-      <c r="R23" t="n">
-        <v>57934</v>
-      </c>
-      <c r="S23" t="n">
-        <v>47096</v>
-      </c>
-      <c r="T23" t="n">
-        <v>50200</v>
-      </c>
-      <c r="U23" t="n">
-        <v>65097</v>
-      </c>
-      <c r="V23" t="n">
-        <v>71173</v>
-      </c>
-      <c r="W23" t="n">
-        <v>77552</v>
-      </c>
-      <c r="X23" t="n">
-        <v>110227</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>233730</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>246480.992</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>249643.008</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>254560</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>240136.992</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>225906</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>210228.992</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>208044.992</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>195587.008</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2920,54 +1784,6 @@
       <c r="Q24" t="n">
         <v>244224.992</v>
       </c>
-      <c r="R24" t="n">
-        <v>15621</v>
-      </c>
-      <c r="S24" t="n">
-        <v>16305</v>
-      </c>
-      <c r="T24" t="n">
-        <v>16293</v>
-      </c>
-      <c r="U24" t="n">
-        <v>16714</v>
-      </c>
-      <c r="V24" t="n">
-        <v>17700</v>
-      </c>
-      <c r="W24" t="n">
-        <v>18667</v>
-      </c>
-      <c r="X24" t="n">
-        <v>20193</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>24350</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>29466</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>34576</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>37585</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>39944</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>40296</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>41002</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>41797</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>42191</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3023,54 +1839,6 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3126,54 +1894,6 @@
       <c r="Q26" t="n">
         <v>977974.0159999999</v>
       </c>
-      <c r="R26" t="n">
-        <v>213683.008</v>
-      </c>
-      <c r="S26" t="n">
-        <v>197816</v>
-      </c>
-      <c r="T26" t="n">
-        <v>270035.008</v>
-      </c>
-      <c r="U26" t="n">
-        <v>261268.992</v>
-      </c>
-      <c r="V26" t="n">
-        <v>310182.016</v>
-      </c>
-      <c r="W26" t="n">
-        <v>932945.024</v>
-      </c>
-      <c r="X26" t="n">
-        <v>915187.968</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1003580.992</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>999038.976</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>930060.992</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>899806.976</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>887532.032</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>906979.968</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>853542.0159999999</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>813412.992</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>780024</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3229,54 +1949,6 @@
       <c r="Q27" t="n">
         <v>388508.992</v>
       </c>
-      <c r="R27" t="n">
-        <v>182679.008</v>
-      </c>
-      <c r="S27" t="n">
-        <v>159439.008</v>
-      </c>
-      <c r="T27" t="n">
-        <v>240656.992</v>
-      </c>
-      <c r="U27" t="n">
-        <v>217903.008</v>
-      </c>
-      <c r="V27" t="n">
-        <v>252270</v>
-      </c>
-      <c r="W27" t="n">
-        <v>191196.992</v>
-      </c>
-      <c r="X27" t="n">
-        <v>162804.992</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>174412</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>186459.008</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>155596.992</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>143399.008</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>165690</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>191278</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>162134</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>129872</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>155890</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3332,54 +2004,6 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="n">
-        <v>9257</v>
-      </c>
-      <c r="S28" t="n">
-        <v>10581</v>
-      </c>
-      <c r="T28" t="n">
-        <v>13339</v>
-      </c>
-      <c r="U28" t="n">
-        <v>12664</v>
-      </c>
-      <c r="V28" t="n">
-        <v>12731</v>
-      </c>
-      <c r="W28" t="n">
-        <v>11152</v>
-      </c>
-      <c r="X28" t="n">
-        <v>10907</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>29337</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>25463</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>26014</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10983</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10709</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>12706</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>12498</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11196</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11347</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3435,54 +2059,6 @@
       <c r="Q29" t="n">
         <v>30001</v>
       </c>
-      <c r="R29" t="n">
-        <v>96554</v>
-      </c>
-      <c r="S29" t="n">
-        <v>81142</v>
-      </c>
-      <c r="T29" t="n">
-        <v>112527</v>
-      </c>
-      <c r="U29" t="n">
-        <v>128740</v>
-      </c>
-      <c r="V29" t="n">
-        <v>134740</v>
-      </c>
-      <c r="W29" t="n">
-        <v>115824</v>
-      </c>
-      <c r="X29" t="n">
-        <v>97739</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>84452</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>109568</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>66523</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>77813</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>88320</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>114095</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>85388</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>61181</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>61639</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3538,54 +2114,6 @@
       <c r="Q30" t="n">
         <v>25719</v>
       </c>
-      <c r="R30" t="n">
-        <v>5760</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4275</v>
-      </c>
-      <c r="T30" t="n">
-        <v>10711</v>
-      </c>
-      <c r="U30" t="n">
-        <v>5862</v>
-      </c>
-      <c r="V30" t="n">
-        <v>8152</v>
-      </c>
-      <c r="W30" t="n">
-        <v>5323</v>
-      </c>
-      <c r="X30" t="n">
-        <v>4444</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>4528</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>2739</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>2988</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>3299</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>4766</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6188</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>4734</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>4564</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>5348</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3641,54 +2169,6 @@
       <c r="Q31" t="n">
         <v>3384</v>
       </c>
-      <c r="R31" t="n">
-        <v>47087</v>
-      </c>
-      <c r="S31" t="n">
-        <v>46819</v>
-      </c>
-      <c r="T31" t="n">
-        <v>50217</v>
-      </c>
-      <c r="U31" t="n">
-        <v>16794</v>
-      </c>
-      <c r="V31" t="n">
-        <v>50371</v>
-      </c>
-      <c r="W31" t="n">
-        <v>18903</v>
-      </c>
-      <c r="X31" t="n">
-        <v>18191</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>28540</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>31679</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>32783</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>36627</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>38460</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>39567</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>45761</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>41091</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>65045</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3744,54 +2224,6 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="n">
-        <v>22358</v>
-      </c>
-      <c r="S32" t="n">
-        <v>15263</v>
-      </c>
-      <c r="T32" t="n">
-        <v>52115</v>
-      </c>
-      <c r="U32" t="n">
-        <v>52038</v>
-      </c>
-      <c r="V32" t="n">
-        <v>45058</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>122</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>43</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3847,54 +2279,6 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3950,54 +2334,6 @@
       <c r="Q34" t="n">
         <v>296319.008</v>
       </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>38907</v>
-      </c>
-      <c r="X34" t="n">
-        <v>27935</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>24253</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>14569</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>15016</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>12053</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>10082</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>15042</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>11113</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>8567</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>9595</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4053,54 +2389,6 @@
       <c r="Q35" t="n">
         <v>33086</v>
       </c>
-      <c r="R35" t="n">
-        <v>1663</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1359</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1748</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1805</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1218</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1088</v>
-      </c>
-      <c r="X35" t="n">
-        <v>3589</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>3302</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>2356</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>12193</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>2548</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>13231</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>3639</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>2598</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>3230</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>2881</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4156,54 +2444,6 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4259,54 +2499,6 @@
       <c r="Q37" t="n">
         <v>163300.992</v>
       </c>
-      <c r="R37" t="n">
-        <v>36812</v>
-      </c>
-      <c r="S37" t="n">
-        <v>27679</v>
-      </c>
-      <c r="T37" t="n">
-        <v>26275</v>
-      </c>
-      <c r="U37" t="n">
-        <v>38380</v>
-      </c>
-      <c r="V37" t="n">
-        <v>76616</v>
-      </c>
-      <c r="W37" t="n">
-        <v>46831</v>
-      </c>
-      <c r="X37" t="n">
-        <v>71543</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>171956.992</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>171758</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>158536</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>167622</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>151416.992</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>161652.992</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>159424.992</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>168090</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>132341</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4362,54 +2554,6 @@
       <c r="Q38" t="n">
         <v>4402</v>
       </c>
-      <c r="R38" t="n">
-        <v>33658</v>
-      </c>
-      <c r="S38" t="n">
-        <v>24663</v>
-      </c>
-      <c r="T38" t="n">
-        <v>23536</v>
-      </c>
-      <c r="U38" t="n">
-        <v>35908</v>
-      </c>
-      <c r="V38" t="n">
-        <v>67205</v>
-      </c>
-      <c r="W38" t="n">
-        <v>35588</v>
-      </c>
-      <c r="X38" t="n">
-        <v>61027</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>159864</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>158942</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>145027.008</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>143975.008</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>136836</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>136268</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>130027</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>136268</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>115156</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4465,54 +2609,6 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4568,54 +2664,6 @@
       <c r="Q40" t="n">
         <v>20391</v>
       </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4671,54 +2719,6 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="n">
-        <v>2267</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2129</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1852</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1711</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1560</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1303</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1305</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1183</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1183</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>580</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>580</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>580</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>580</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>580</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>580</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4774,54 +2774,6 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4877,54 +2829,6 @@
       <c r="Q43" t="n">
         <v>138508</v>
       </c>
-      <c r="R43" t="n">
-        <v>887</v>
-      </c>
-      <c r="S43" t="n">
-        <v>887</v>
-      </c>
-      <c r="T43" t="n">
-        <v>887</v>
-      </c>
-      <c r="U43" t="n">
-        <v>761</v>
-      </c>
-      <c r="V43" t="n">
-        <v>7851</v>
-      </c>
-      <c r="W43" t="n">
-        <v>9940</v>
-      </c>
-      <c r="X43" t="n">
-        <v>9211</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>10910</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>11633</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>12929</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>23067</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>14001</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>24805</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>28818</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>31242</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>17123</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4980,54 +2884,6 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5083,54 +2939,6 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5186,54 +2994,6 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="n">
-        <v>-6</v>
-      </c>
-      <c r="S46" t="n">
-        <v>-7</v>
-      </c>
-      <c r="T46" t="n">
-        <v>-8</v>
-      </c>
-      <c r="U46" t="n">
-        <v>-8</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5289,54 +3049,6 @@
       <c r="Q47" t="n">
         <v>426164</v>
       </c>
-      <c r="R47" t="n">
-        <v>-5802</v>
-      </c>
-      <c r="S47" t="n">
-        <v>10705</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3111</v>
-      </c>
-      <c r="U47" t="n">
-        <v>4994</v>
-      </c>
-      <c r="V47" t="n">
-        <v>-18704</v>
-      </c>
-      <c r="W47" t="n">
-        <v>694916.992</v>
-      </c>
-      <c r="X47" t="n">
-        <v>680840</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>657212.032</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>640822.0159999999</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>615928</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>588785.9840000001</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>570425.024</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>554049.024</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>531983.008</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>515451.008</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>491792.992</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5392,54 +3104,6 @@
       <c r="Q48" t="n">
         <v>511934.016</v>
       </c>
-      <c r="R48" t="n">
-        <v>319835.008</v>
-      </c>
-      <c r="S48" t="n">
-        <v>347195.008</v>
-      </c>
-      <c r="T48" t="n">
-        <v>347195.008</v>
-      </c>
-      <c r="U48" t="n">
-        <v>347195.008</v>
-      </c>
-      <c r="V48" t="n">
-        <v>347196.992</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1124974.976</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1085961.984</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1085782.016</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1085844.992</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1085844.992</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1085844.992</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1085844.992</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1085844.992</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1085844.992</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1085844.992</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1085846.016</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5495,54 +3159,6 @@
       <c r="Q49" t="n">
         <v>4914</v>
       </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>-38666</v>
-      </c>
-      <c r="X49" t="n">
-        <v>3258</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>5496</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>5687</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>6708</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>7411</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>8281</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>8752</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>9225</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>9840</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>10472</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5598,54 +3214,6 @@
       <c r="Q50" t="n">
         <v>24083</v>
       </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5701,54 +3269,6 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5804,54 +3324,6 @@
       <c r="Q52" t="n">
         <v>-114767</v>
       </c>
-      <c r="R52" t="n">
-        <v>-325636.992</v>
-      </c>
-      <c r="S52" t="n">
-        <v>-336489.984</v>
-      </c>
-      <c r="T52" t="n">
-        <v>-344084</v>
-      </c>
-      <c r="U52" t="n">
-        <v>-342200.992</v>
-      </c>
-      <c r="V52" t="n">
-        <v>-365900.992</v>
-      </c>
-      <c r="W52" t="n">
-        <v>-391392</v>
-      </c>
-      <c r="X52" t="n">
-        <v>-408380</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>-434065.984</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>-450710.016</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>-476624.992</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>-504470.016</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>-523700.992</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>-540547.968</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>-563086.976</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>-580233.9840000001</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>-604524.992</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5907,54 +3379,6 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6010,54 +3434,6 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6113,54 +3489,6 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6214,54 +3542,6 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6317,22 +3597,6 @@
       <c r="Q57" t="n">
         <v>552032</v>
       </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6386,22 +3650,6 @@
       <c r="Q58" t="n">
         <v>-6976</v>
       </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6455,52 +3703,6 @@
       <c r="Q59" t="n">
         <v>545056</v>
       </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
-        <v>113726</v>
-      </c>
-      <c r="T59" t="n">
-        <v>126797</v>
-      </c>
-      <c r="U59" t="n">
-        <v>180228.992</v>
-      </c>
-      <c r="V59" t="n">
-        <v>182353.024</v>
-      </c>
-      <c r="W59" t="n">
-        <v>168984.992</v>
-      </c>
-      <c r="X59" t="n">
-        <v>175679.008</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>186343.008</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>190383.968</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>152918</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>148752</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>159638</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>175751.008</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>146736</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>128154</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>123813</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6554,52 +3756,6 @@
       <c r="Q60" t="n">
         <v>-424966.016</v>
       </c>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
-        <v>-68249</v>
-      </c>
-      <c r="T60" t="n">
-        <v>-75706</v>
-      </c>
-      <c r="U60" t="n">
-        <v>-104385</v>
-      </c>
-      <c r="V60" t="n">
-        <v>-113196.992</v>
-      </c>
-      <c r="W60" t="n">
-        <v>-98508</v>
-      </c>
-      <c r="X60" t="n">
-        <v>-109924</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>-113557</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>-112327</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>-93128</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>-92293</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>-96049</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>-101401.008</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>-82976</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>-71980</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>-70882</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6653,52 +3809,6 @@
       <c r="Q61" t="n">
         <v>120090</v>
       </c>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
-        <v>45477</v>
-      </c>
-      <c r="T61" t="n">
-        <v>51091</v>
-      </c>
-      <c r="U61" t="n">
-        <v>75844</v>
-      </c>
-      <c r="V61" t="n">
-        <v>69156</v>
-      </c>
-      <c r="W61" t="n">
-        <v>70477</v>
-      </c>
-      <c r="X61" t="n">
-        <v>65755</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>72786</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>78057.008</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>59790</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>56459</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>63589</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>74350</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>63760</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>56174</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>52931</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6752,52 +3862,6 @@
       <c r="Q62" t="n">
         <v>-25384</v>
       </c>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
-        <v>-39603</v>
-      </c>
-      <c r="T62" t="n">
-        <v>-41889</v>
-      </c>
-      <c r="U62" t="n">
-        <v>-57555</v>
-      </c>
-      <c r="V62" t="n">
-        <v>-70516.008</v>
-      </c>
-      <c r="W62" t="n">
-        <v>-62170</v>
-      </c>
-      <c r="X62" t="n">
-        <v>-62244</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>-73634</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>-73873.984</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>-64808</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>-64364</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>-67698</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>-71532</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>-60342</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>-56092</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>-57651</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6851,52 +3915,6 @@
       <c r="Q63" t="n">
         <v>-76095</v>
       </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
-        <v>-12402</v>
-      </c>
-      <c r="T63" t="n">
-        <v>-10958</v>
-      </c>
-      <c r="U63" t="n">
-        <v>-12359</v>
-      </c>
-      <c r="V63" t="n">
-        <v>-14179</v>
-      </c>
-      <c r="W63" t="n">
-        <v>-30637</v>
-      </c>
-      <c r="X63" t="n">
-        <v>-21296</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>-22622</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>-19713</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>-20762</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>-20885</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>-20837</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>-21009</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-22519</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>-21656</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-19328</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6949,52 +3967,6 @@
       </c>
       <c r="Q64" t="n">
         <v>0</v>
-      </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
-        <v>-354</v>
-      </c>
-      <c r="T64" t="n">
-        <v>-3157</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>-290</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>-429</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>-38</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>-27</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>-307</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>-119</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>-318</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>-267</v>
       </c>
     </row>
     <row r="65">
@@ -7049,52 +4021,6 @@
       <c r="Q65" t="n">
         <v>20522</v>
       </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
-        <v>234</v>
-      </c>
-      <c r="T65" t="n">
-        <v>841</v>
-      </c>
-      <c r="U65" t="n">
-        <v>848</v>
-      </c>
-      <c r="V65" t="n">
-        <v>-2187</v>
-      </c>
-      <c r="W65" t="n">
-        <v>5489</v>
-      </c>
-      <c r="X65" t="n">
-        <v>698</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>-4038</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>2007</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>-111</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>942</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>504</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>335</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7148,52 +4074,6 @@
       <c r="Q66" t="n">
         <v>-45168</v>
       </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
-        <v>-65</v>
-      </c>
-      <c r="T66" t="n">
-        <v>-110</v>
-      </c>
-      <c r="U66" t="n">
-        <v>-235</v>
-      </c>
-      <c r="V66" t="n">
-        <v>410</v>
-      </c>
-      <c r="W66" t="n">
-        <v>-4156</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>-1849</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>6005</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>-36</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7245,52 +4125,6 @@
         <v>-2537</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7346,52 +4180,6 @@
       <c r="Q68" t="n">
         <v>8216</v>
       </c>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
-        <v>-4141</v>
-      </c>
-      <c r="T68" t="n">
-        <v>-3414</v>
-      </c>
-      <c r="U68" t="n">
-        <v>-4659</v>
-      </c>
-      <c r="V68" t="n">
-        <v>-6374</v>
-      </c>
-      <c r="W68" t="n">
-        <v>-4494</v>
-      </c>
-      <c r="X68" t="n">
-        <v>388</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>-448</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>-2652</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>-145</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>966</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>3735</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>1721</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>-4261</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>4241</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>-312</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7445,52 +4233,6 @@
       <c r="Q69" t="n">
         <v>8844</v>
       </c>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
-        <v>1843</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1507</v>
-      </c>
-      <c r="U69" t="n">
-        <v>1526</v>
-      </c>
-      <c r="V69" t="n">
-        <v>1599</v>
-      </c>
-      <c r="W69" t="n">
-        <v>3750</v>
-      </c>
-      <c r="X69" t="n">
-        <v>5534</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>7459</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>7979</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>8308</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>10132</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>12876</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>15711</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>12659</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>16808</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>9795</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7544,52 +4286,6 @@
       <c r="Q70" t="n">
         <v>-628</v>
       </c>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
-        <v>-5984</v>
-      </c>
-      <c r="T70" t="n">
-        <v>-4921</v>
-      </c>
-      <c r="U70" t="n">
-        <v>-6185</v>
-      </c>
-      <c r="V70" t="n">
-        <v>-7973</v>
-      </c>
-      <c r="W70" t="n">
-        <v>-8244</v>
-      </c>
-      <c r="X70" t="n">
-        <v>-5146</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>-7907</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>-10631</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>-8453</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>-9166</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>-9141</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>-13990</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>-16920</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>-12567</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>-10107</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7643,22 +4339,6 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7712,22 +4392,6 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7781,22 +4445,6 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7850,52 +4498,6 @@
       <c r="Q74" t="n">
         <v>2181</v>
       </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
-        <v>-10854</v>
-      </c>
-      <c r="T74" t="n">
-        <v>-7596</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1884</v>
-      </c>
-      <c r="V74" t="n">
-        <v>-23690</v>
-      </c>
-      <c r="W74" t="n">
-        <v>-25491</v>
-      </c>
-      <c r="X74" t="n">
-        <v>-16989</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>-25685</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>-16644</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>-25915</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>-27840</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>-19231</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>-16852</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>-22539</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>-17147</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>-24292</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7949,52 +4551,6 @@
       <c r="Q75" t="n">
         <v>-1857</v>
       </c>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" t="n">
-        <v>0</v>
-      </c>
-      <c r="V75" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8048,52 +4604,6 @@
       <c r="Q76" t="n">
         <v>308</v>
       </c>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8147,22 +4657,6 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8216,22 +4710,6 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8283,52 +4761,6 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
-        <v>1</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>-2</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8383,52 +4815,6 @@
       </c>
       <c r="Q80" t="n">
         <v>632</v>
-      </c>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
-        <v>-10853</v>
-      </c>
-      <c r="T80" t="n">
-        <v>-7595</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1884</v>
-      </c>
-      <c r="V80" t="n">
-        <v>-23692</v>
-      </c>
-      <c r="W80" t="n">
-        <v>-25491</v>
-      </c>
-      <c r="X80" t="n">
-        <v>-16989</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>-25685</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>-16644</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>-25915</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>-27840</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>-19231</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>-16852</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>-22539</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>-17147</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>-24292</v>
       </c>
     </row>
   </sheetData>
